--- a/TranslationData.xlsx
+++ b/TranslationData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>English</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>PC以外をキックする</t>
+  </si>
+  <si>
+    <t>NotPCBan</t>
+  </si>
+  <si>
+    <t>Ban non-PC</t>
+  </si>
+  <si>
+    <t>PC以外をバン</t>
   </si>
 </sst>
 </file>
@@ -704,7 +713,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -730,8 +739,12 @@
       <c r="Q7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -742,7 +755,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -938,7 +953,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>

--- a/TranslationData.xlsx
+++ b/TranslationData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Program\AmongUs_Mod_Development\SSP_KT\SuperSimplePlus_KT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D1C640-2136-440D-944B-D6E9D1BFD64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3569A0F6-7673-4990-88CA-4A12AA792B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,11 +134,11 @@
     <t>PC以外をバン</t>
   </si>
   <si>
-    <t>&lt;color=#96514d&gt;SuperSimplePlus&lt;/color&gt; Settings</t>
+    <t>&lt;color=#96514d&gt;SuperSimplePlus_Deputata&lt;/color&gt; Settings</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#96514d&gt;SuperSimplePlus&lt;/color&gt;の設定</t>
+    <t>&lt;color=#96514d&gt;SuperSimplePlus_Deputata&lt;/color&gt;の設定</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -523,7 +523,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/TranslationData.xlsx
+++ b/TranslationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Program\AmongUs_Mod_Development\SSP_KT\SuperSimplePlus_KT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3569A0F6-7673-4990-88CA-4A12AA792B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE69311-22D3-4BE6-83EF-7DC477C98E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>English</t>
   </si>
@@ -139,6 +139,36 @@
   </si>
   <si>
     <t>&lt;color=#96514d&gt;SuperSimplePlus_Deputata&lt;/color&gt;の設定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UpdateUsingDotnetSix</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用している{0}が.NET6版の為、自動更新できません。\n手動でのアップデートをお願いします。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ジドウコウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The {0} you are using cannot be updated automatically because it is the .NET6 version. \nPlease update it manually.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -218,8 +248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:D3" totalsRowShown="0">
-  <autoFilter ref="A2:D3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:D4" totalsRowShown="0">
+  <autoFilter ref="A2:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -520,10 +550,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -601,71 +631,81 @@
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -676,6 +716,7 @@
     <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TranslationData.xlsx
+++ b/TranslationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Program\AmongUs_Mod_Development\SSP_KT\SuperSimplePlus_KT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE69311-22D3-4BE6-83EF-7DC477C98E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{070751FC-C03D-4548-B9DE-D1A694EF03A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>English</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>アップデートに失敗しました\n後で再試行してください。\nまたは手動でアップデートしてください。</t>
-  </si>
-  <si>
-    <t>UpdateInProgress</t>
   </si>
   <si>
     <t>Updating {0}\nPlease wait...</t>
@@ -169,6 +166,32 @@
   </si>
   <si>
     <t>The {0} you are using cannot be updated automatically because it is the .NET6 version. \nPlease update it manually.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UpdateInProgress</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ChatLogFileCreate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\n|:===================================================================================:|
+  チャットログを保存するファイル [ {0} ] を作成しました。
+|:===================================================================================:|</t>
+    <rPh sb="99" eb="101">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>\n|:===================================================================================:|
+    Created file [ {0} ] to store chat logs.
+|:===================================================================================:|</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -225,10 +248,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,8 +578,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -631,13 +657,13 @@
     </row>
     <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,49 +690,59 @@
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="M6" t="s">
         <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
         <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="M8" t="s">
         <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TranslationData.xlsx
+++ b/TranslationData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Program\AmongUs_Mod_Development\SSP_KT\SuperSimplePlus_KT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070751FC-C03D-4548-B9DE-D1A694EF03A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{786A97BF-E3CE-47C8-8E58-C5CB03533F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>English</t>
   </si>
@@ -194,12 +194,27 @@
 |:===================================================================================:|</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ChatLog</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チャットログを作成する</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Create a chat log</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +234,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,13 +269,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -736,6 +760,9 @@
       <c r="A10" t="s">
         <v>42</v>
       </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
@@ -743,7 +770,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TranslationData.xlsx
+++ b/TranslationData.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06-Program\AmongUs_Mod_Development\SSP_KT\SuperSimplePlus_KT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE69311-22D3-4BE6-83EF-7DC477C98E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TranslationData.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="TranslationData.xlsx"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>English</t>
   </si>
@@ -116,6 +109,12 @@
     <t>SSPSettings</t>
   </si>
   <si>
+    <t>&lt;color=#96514d&gt;SuperSimplePlus_Deputata&lt;/color&gt; Settings</t>
+  </si>
+  <si>
+    <t>&lt;color=#96514d&gt;SuperSimplePlus_Deputata&lt;/color&gt;の設定</t>
+  </si>
+  <si>
     <t>NotPCKick</t>
   </si>
   <si>
@@ -132,55 +131,18 @@
   </si>
   <si>
     <t>PC以外をバン</t>
-  </si>
-  <si>
-    <t>&lt;color=#96514d&gt;SuperSimplePlus_Deputata&lt;/color&gt; Settings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#96514d&gt;SuperSimplePlus_Deputata&lt;/color&gt;の設定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UpdateUsingDotnetSix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用している{0}が.NET6版の為、自動更新できません。\n手動でのアップデートをお願いします。</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ジドウコウシン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>The {0} you are using cannot be updated automatically because it is the .NET6 version. \nPlease update it manually.</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -189,13 +151,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,40 +180,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:D4" totalsRowShown="0">
-  <autoFilter ref="A2:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:D3" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A2:D3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" totalsRowFunction="custom">
+    <tableColumn name="Column1" id="1" totalsRowLabel="Total"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4" totalsRowFunction="custom">
       <totalsRowFormula>Sum</totalsRowFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -267,10 +225,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -308,71 +266,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,7 +358,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -423,11 +381,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -436,13 +394,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -452,7 +410,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -461,7 +419,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -470,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,10 +436,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -546,22 +504,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -569,160 +541,441 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M6" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M7" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/TranslationData.xlsx
+++ b/TranslationData.xlsx
@@ -152,7 +152,7 @@
     <t>ChatLog</t>
   </si>
   <si>
-    <t>チャットログを作成する</t>
+    <t>ゲームログを作成する</t>
   </si>
 </sst>
 </file>
@@ -160,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +177,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -223,18 +229,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -567,27 +573,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -636,7 +642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="36">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="36" customFormat="1" s="5">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -665,7 +671,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="81">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="81" customFormat="1" s="5">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -690,7 +696,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="126.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="126.75" customFormat="1" s="5">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -715,7 +721,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="66">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="66" customFormat="1" s="5">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -740,7 +746,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="49.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="49.5" customFormat="1" s="5">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -765,7 +771,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="36">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="36" customFormat="1" s="5">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -790,7 +796,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21" customFormat="1" s="5">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -815,7 +821,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="342.75" customFormat="1" s="5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="311.25" customFormat="1" s="5">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -865,7 +871,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -884,7 +890,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -903,7 +909,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -922,7 +928,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -941,7 +947,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -960,7 +966,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -979,7 +985,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -998,7 +1004,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1017,7 +1023,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
